--- a/Resurszurawiawzor.xlsx
+++ b/Resurszurawiawzor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="txjYfBARgNbtDmVrb+ohay2AfapVdRwLnVVrQsTzUHGSX15zuBUNeK0vFY5aRI8yJ/QX1QOznUjvDDmPUu9aOA==" workbookSaltValue="hmenLSfrHHO8wqQ9E97PXQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -552,45 +552,39 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,32 +593,38 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,7 +1069,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1083,324 +1083,324 @@
       <selection activeCell="N12" sqref="N12:Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="1"/>
     <col min="2" max="2" width="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" customWidth="1"/>
+    <col min="4" max="4" width="1.1796875" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="9" max="9" width="1.140625" customWidth="1"/>
+    <col min="6" max="6" width="2.7265625" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" customWidth="1"/>
+    <col min="9" max="9" width="1.1796875" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="1.140625" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
-    <col min="13" max="13" width="1.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="2.85546875" customWidth="1"/>
-    <col min="16" max="16" width="5.28515625" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.1796875" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" customWidth="1"/>
+    <col min="13" max="13" width="1.81640625" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" customWidth="1"/>
+    <col min="15" max="15" width="2.81640625" customWidth="1"/>
+    <col min="16" max="16" width="5.26953125" customWidth="1"/>
+    <col min="17" max="17" width="3.54296875" customWidth="1"/>
+    <col min="18" max="18" width="9.26953125" customWidth="1"/>
+    <col min="24" max="24" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
       <c r="R1" s="29"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
       <c r="R2" s="21"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
       <c r="R3" s="26"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
       <c r="R4" s="26"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
+    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
       <c r="R5" s="26"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
       <c r="R6" s="30"/>
       <c r="S6" s="17"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="72" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="79">
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="64">
         <f ca="1">TODAY()</f>
-        <v>44898</v>
-      </c>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
+        <v>44949</v>
+      </c>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
       <c r="R7" s="28"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="72" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
       <c r="R8" s="28"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="72" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
       <c r="R9" s="28"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="72" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
       <c r="R10" s="28"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="78" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="72" t="s">
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
       <c r="R11" s="28"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="72" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
       <c r="R12" s="28"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
       <c r="K13" s="47"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
@@ -1412,78 +1412,78 @@
       <c r="S13" s="1"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
       <c r="R14" s="31"/>
       <c r="S14" s="1"/>
       <c r="X14" s="8"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
       <c r="R15" s="32"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
       <c r="R16" s="32"/>
       <c r="S16" s="13"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -1503,72 +1503,72 @@
       <c r="Q17" s="34"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
       <c r="R18" s="27"/>
       <c r="S18" s="11"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
       <c r="R19" s="27"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
       <c r="R20" s="27"/>
       <c r="S20" s="11"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -1588,7 +1588,7 @@
       <c r="Q21" s="34"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35">
         <f>N12</f>
         <v>0</v>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="E22" s="35">
         <f ca="1">YEAR(TODAY())-N10</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>15</v>
@@ -1647,7 +1647,7 @@
       <c r="S22" s="6"/>
       <c r="V22" s="7"/>
     </row>
-    <row r="23" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
         <v>33</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="Q23" s="38"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="1:22" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A24" s="34"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -1689,16 +1689,16 @@
       <c r="E24" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="71">
         <f ca="1">N22</f>
         <v>0</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61" t="s">
+      <c r="G24" s="71"/>
+      <c r="H24" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
       <c r="K24" s="45"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
@@ -1708,60 +1708,60 @@
       <c r="Q24" s="34"/>
       <c r="S24" s="5"/>
     </row>
-    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="19"/>
       <c r="S25" s="5"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A26" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
       <c r="R26" s="21"/>
     </row>
-    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
@@ -1773,19 +1773,19 @@
       <c r="Q27" s="34"/>
       <c r="R27" s="20"/>
     </row>
-    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
       <c r="K28" s="46"/>
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
@@ -1795,19 +1795,19 @@
       <c r="Q28" s="41"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A29" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
       <c r="K29" s="46"/>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
@@ -1817,189 +1817,189 @@
       <c r="Q29" s="34"/>
       <c r="R29" s="25"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A30" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
       <c r="S30" s="15"/>
     </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
       <c r="R31" s="26"/>
       <c r="S31" s="15"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A32" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
       <c r="O32" s="41"/>
       <c r="P32" s="41"/>
       <c r="Q32" s="41"/>
       <c r="R32" s="26"/>
       <c r="S32" s="15"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="62" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
       <c r="R33" s="25"/>
       <c r="S33" s="15"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
       <c r="S34" s="15"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71" t="s">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="77">
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="62">
         <f ca="1">F24</f>
         <v>0</v>
       </c>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="77"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
-      <c r="H37" s="70" t="s">
+      <c r="H37" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
       <c r="M37" s="34"/>
       <c r="N37" s="34"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="77"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="34"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
@@ -2016,11 +2016,11 @@
       <c r="R38" s="25"/>
       <c r="S38" s="16"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="34"/>
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
@@ -2037,11 +2037,11 @@
       <c r="R39" s="21"/>
       <c r="S39" s="16"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
       <c r="E40" s="34"/>
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
@@ -2057,11 +2057,11 @@
       <c r="Q40" s="33"/>
       <c r="S40" s="16"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="34"/>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
@@ -2077,7 +2077,7 @@
       <c r="Q41" s="34"/>
       <c r="R41" s="21"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="34"/>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -2096,50 +2096,50 @@
       <c r="P42" s="34"/>
       <c r="Q42" s="33"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="34"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
       <c r="P43" s="44"/>
       <c r="Q43" s="44"/>
       <c r="R43" s="21"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="43"/>
       <c r="B44" s="34"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
       <c r="P44" s="44"/>
       <c r="Q44" s="44"/>
       <c r="R44" s="23"/>
       <c r="S44" s="16"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="34"/>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -2160,7 +2160,7 @@
       <c r="R45" s="23"/>
       <c r="S45" s="16"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="34"/>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
@@ -2181,13 +2181,13 @@
       <c r="R46" s="23"/>
       <c r="S46" s="16"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="R47" s="21"/>
     </row>
-    <row r="48" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="R48" s="24"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -2207,7 +2207,7 @@
       <c r="Q49" s="18"/>
       <c r="R49" s="18"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
       <c r="M50" s="22"/>
@@ -2217,13 +2217,13 @@
       <c r="Q50" s="18"/>
       <c r="R50" s="18"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="R51" s="18"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="R52" s="18"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -2239,7 +2239,7 @@
       <c r="Q53" s="18"/>
       <c r="R53" s="18"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -2255,7 +2255,7 @@
       <c r="Q54" s="18"/>
       <c r="R54" s="18"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -2275,7 +2275,7 @@
       <c r="Q55" s="18"/>
       <c r="R55" s="18"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -2295,7 +2295,7 @@
       <c r="Q56" s="18"/>
       <c r="R56" s="18"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2318,6 +2318,33 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="43">
+    <mergeCell ref="C43:O44"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A30:Q31"/>
+    <mergeCell ref="A33:Q35"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="A18:Q20"/>
+    <mergeCell ref="A3:Q5"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="A36:N36"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="A11:C12"/>
     <mergeCell ref="A38:D41"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A37:D37"/>
@@ -2334,33 +2361,6 @@
     <mergeCell ref="D9:I10"/>
     <mergeCell ref="D11:I12"/>
     <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A32:N32"/>
-    <mergeCell ref="A36:N36"/>
-    <mergeCell ref="C43:O44"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A30:Q31"/>
-    <mergeCell ref="A33:Q35"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="A18:Q20"/>
-    <mergeCell ref="A3:Q5"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A9:C10"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C22:D22"/>
